--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121131a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121131a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.1004773748247614</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.534262594278304</v>
+      </c>
+      <c r="C5">
+        <v>0.5774290636611376</v>
+      </c>
+      <c r="D5">
+        <v>0.5834208672955188</v>
+      </c>
+      <c r="E5">
+        <v>1.313191426213791</v>
+      </c>
+      <c r="F5">
+        <v>0.6363810316091565</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.534262594278304</v>
+        <v>2.751838215691569</v>
       </c>
       <c r="C6">
-        <v>0.5774290636611376</v>
+        <v>2.786730646714524</v>
       </c>
       <c r="D6">
-        <v>0.5834208672955188</v>
+        <v>2.80816361042821</v>
       </c>
       <c r="E6">
-        <v>1.313191426213791</v>
+        <v>6.770766208238949</v>
       </c>
       <c r="F6">
-        <v>0.6363810316091565</v>
+        <v>3.226946001731523</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.751838215691569</v>
+        <v>0.3369099405759431</v>
       </c>
       <c r="C7">
-        <v>2.786730646714524</v>
+        <v>0.970889750537766</v>
       </c>
       <c r="D7">
-        <v>2.80816361042821</v>
+        <v>1.091302558881155</v>
       </c>
       <c r="E7">
-        <v>6.770766208238949</v>
+        <v>2.979593965458233</v>
       </c>
       <c r="F7">
-        <v>3.226946001731523</v>
+        <v>1.255537998475748</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.9351365465975515</v>
+      </c>
+      <c r="C8">
+        <v>2.527515502262166</v>
+      </c>
+      <c r="D8">
+        <v>2.65876717717696</v>
+      </c>
+      <c r="E8">
+        <v>8.499252138371324</v>
+      </c>
+      <c r="F8">
+        <v>4.448116038571495</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3369099405759431</v>
+        <v>1.073967531882544</v>
       </c>
       <c r="C9">
-        <v>0.970889750537766</v>
+        <v>2.075724343317236</v>
       </c>
       <c r="D9">
-        <v>1.091302558881155</v>
+        <v>2.493052392820026</v>
       </c>
       <c r="E9">
-        <v>2.979593965458233</v>
+        <v>13.70726538048483</v>
       </c>
       <c r="F9">
-        <v>1.255537998475748</v>
+        <v>3.980854559862293</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.9351365465975515</v>
+        <v>0.7513350880523262</v>
       </c>
       <c r="C10">
-        <v>2.527515502262166</v>
+        <v>1.810486606311974</v>
       </c>
       <c r="D10">
-        <v>2.65876717717696</v>
+        <v>1.564545582832586</v>
       </c>
       <c r="E10">
-        <v>8.499252138371324</v>
+        <v>6.327640310204162</v>
       </c>
       <c r="F10">
-        <v>4.448116038571495</v>
+        <v>2.405535474811499</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>1.073967531882544</v>
+        <v>1.357576727239848</v>
       </c>
       <c r="C11">
-        <v>2.075724343317236</v>
+        <v>2.276096621484842</v>
       </c>
       <c r="D11">
-        <v>2.493052392820026</v>
+        <v>2.503860328904569</v>
       </c>
       <c r="E11">
-        <v>13.70726538048483</v>
+        <v>9.218781159433506</v>
       </c>
       <c r="F11">
-        <v>3.980854559862293</v>
+        <v>3.292359841958934</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.7513350880523262</v>
+        <v>0.5448211140824936</v>
       </c>
       <c r="C12">
-        <v>1.810486606311974</v>
+        <v>1.716260281566813</v>
       </c>
       <c r="D12">
-        <v>1.564545582832586</v>
+        <v>2.038644956175345</v>
       </c>
       <c r="E12">
-        <v>6.327640310204162</v>
+        <v>4.658804987405432</v>
       </c>
       <c r="F12">
-        <v>2.405535474811499</v>
+        <v>2.010273783740885</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>1.357576727239848</v>
+        <v>0.9940162384637229</v>
       </c>
       <c r="C13">
-        <v>2.276096621484842</v>
+        <v>4.956320005045812</v>
       </c>
       <c r="D13">
-        <v>2.503860328904569</v>
+        <v>5.164969260054879</v>
       </c>
       <c r="E13">
-        <v>9.218781159433506</v>
+        <v>10.56529026716019</v>
       </c>
       <c r="F13">
-        <v>3.292359841958934</v>
+        <v>5.984200945584806</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0.5448211140824936</v>
+        <v>0.7166596656966214</v>
       </c>
       <c r="C14">
-        <v>1.716260281566813</v>
+        <v>1.585766859432774</v>
       </c>
       <c r="D14">
-        <v>2.038644956175345</v>
+        <v>1.83712348272093</v>
       </c>
       <c r="E14">
-        <v>4.658804987405432</v>
+        <v>8.462915343483948</v>
       </c>
       <c r="F14">
-        <v>2.010273783740885</v>
+        <v>1.926508643306948</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.9940162384637229</v>
+        <v>0.2203618695806053</v>
       </c>
       <c r="C15">
-        <v>4.956320005045812</v>
+        <v>0.5775734696167014</v>
       </c>
       <c r="D15">
-        <v>5.164969260054879</v>
+        <v>0.6643654389005188</v>
       </c>
       <c r="E15">
-        <v>10.56529026716019</v>
+        <v>2.54342784970285</v>
       </c>
       <c r="F15">
-        <v>5.984200945584806</v>
+        <v>0.815378974898906</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>0.7166596656966214</v>
+        <v>1.168506920286042</v>
       </c>
       <c r="C16">
-        <v>1.585766859432774</v>
+        <v>2.65176536919659</v>
       </c>
       <c r="D16">
-        <v>1.83712348272093</v>
+        <v>2.572370462686381</v>
       </c>
       <c r="E16">
-        <v>8.462915343483948</v>
+        <v>14.46867910097298</v>
       </c>
       <c r="F16">
-        <v>1.926508643306948</v>
+        <v>3.762736136642522</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2203618695806053</v>
+        <v>0.7251601075213323</v>
       </c>
       <c r="C17">
-        <v>0.5775734696167014</v>
+        <v>2.031992566861021</v>
       </c>
       <c r="D17">
-        <v>0.6643654389005188</v>
+        <v>2.110128024447939</v>
       </c>
       <c r="E17">
-        <v>2.54342784970285</v>
+        <v>11.24185218566879</v>
       </c>
       <c r="F17">
-        <v>0.815378974898906</v>
+        <v>3.739619842679219</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1.168506920286042</v>
+        <v>0.3532509182446637</v>
       </c>
       <c r="C18">
-        <v>2.65176536919659</v>
+        <v>1.083467078597601</v>
       </c>
       <c r="D18">
-        <v>2.572370462686381</v>
+        <v>1.272207888042332</v>
       </c>
       <c r="E18">
-        <v>14.46867910097298</v>
+        <v>5.203689652756638</v>
       </c>
       <c r="F18">
-        <v>3.762736136642522</v>
+        <v>1.764675713480542</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.7251601075213323</v>
+        <v>0.5562571276083321</v>
       </c>
       <c r="C19">
-        <v>2.031992566861021</v>
+        <v>2.14189270427272</v>
       </c>
       <c r="D19">
-        <v>2.110128024447939</v>
+        <v>2.622567178045019</v>
       </c>
       <c r="E19">
-        <v>11.24185218566879</v>
+        <v>9.935972958711302</v>
       </c>
       <c r="F19">
-        <v>3.739619842679219</v>
+        <v>3.103772357215356</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.3532509182446637</v>
+        <v>0.7462352930383374</v>
       </c>
       <c r="C20">
-        <v>1.083467078597601</v>
+        <v>1.65950626008408</v>
       </c>
       <c r="D20">
-        <v>1.272207888042332</v>
+        <v>1.886462290668644</v>
       </c>
       <c r="E20">
-        <v>5.203689652756638</v>
+        <v>11.11242106780509</v>
       </c>
       <c r="F20">
-        <v>1.764675713480542</v>
+        <v>1.516140806799718</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>0.5562571276083321</v>
+        <v>0.5056098357956678</v>
       </c>
       <c r="C21">
-        <v>2.14189270427272</v>
+        <v>1.449972455436696</v>
       </c>
       <c r="D21">
-        <v>2.622567178045019</v>
+        <v>2.057858129747846</v>
       </c>
       <c r="E21">
-        <v>9.935972958711302</v>
+        <v>5.623282877235824</v>
       </c>
       <c r="F21">
-        <v>3.103772357215356</v>
+        <v>1.47708783909198</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.7462352930383374</v>
+        <v>0.7408142963958352</v>
       </c>
       <c r="C22">
-        <v>1.65950626008408</v>
+        <v>2.918624927943557</v>
       </c>
       <c r="D22">
-        <v>1.886462290668644</v>
+        <v>3.267562869824414</v>
       </c>
       <c r="E22">
-        <v>11.11242106780509</v>
+        <v>8.976761904551651</v>
       </c>
       <c r="F22">
-        <v>1.516140806799718</v>
+        <v>2.4559792274702</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0.5056098357956678</v>
+        <v>0.9265238525926806</v>
       </c>
       <c r="C23">
-        <v>1.449972455436696</v>
+        <v>1.277622052929529</v>
       </c>
       <c r="D23">
-        <v>2.057858129747846</v>
+        <v>1.708407566519512</v>
       </c>
       <c r="E23">
-        <v>5.623282877235824</v>
+        <v>5.972483433115404</v>
       </c>
       <c r="F23">
-        <v>1.47708783909198</v>
+        <v>3.154894816082059</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>0.7408142963958352</v>
+        <v>0.3888934803547038</v>
       </c>
       <c r="C24">
-        <v>2.918624927943557</v>
+        <v>1.059486913000883</v>
       </c>
       <c r="D24">
-        <v>3.267562869824414</v>
+        <v>1.22747663090858</v>
       </c>
       <c r="E24">
-        <v>8.976761904551651</v>
+        <v>4.10365805913021</v>
       </c>
       <c r="F24">
-        <v>2.4559792274702</v>
+        <v>1.708809438355084</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>0.9265238525926806</v>
+        <v>0.1591132345516528</v>
       </c>
       <c r="C25">
-        <v>1.277622052929529</v>
+        <v>0.3212856827291022</v>
       </c>
       <c r="D25">
-        <v>1.708407566519512</v>
+        <v>0.3919142079004285</v>
       </c>
       <c r="E25">
-        <v>5.972483433115404</v>
+        <v>1.974800863453626</v>
       </c>
       <c r="F25">
-        <v>3.154894816082059</v>
+        <v>0.5430384024682362</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>0.3888934803547038</v>
+        <v>0.2522351301974524</v>
       </c>
       <c r="C26">
-        <v>1.059486913000883</v>
+        <v>0.5325413577531346</v>
       </c>
       <c r="D26">
-        <v>1.22747663090858</v>
+        <v>0.6495194115409387</v>
       </c>
       <c r="E26">
-        <v>4.10365805913021</v>
+        <v>4.006416825025535</v>
       </c>
       <c r="F26">
-        <v>1.708809438355084</v>
+        <v>1.019619021283253</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.1591132345516528</v>
+        <v>0.5672107772195311</v>
       </c>
       <c r="C27">
-        <v>0.3212856827291022</v>
+        <v>1.412037212433313</v>
       </c>
       <c r="D27">
-        <v>0.3919142079004285</v>
+        <v>1.900429760672654</v>
       </c>
       <c r="E27">
-        <v>1.974800863453626</v>
+        <v>8.481015894052893</v>
       </c>
       <c r="F27">
-        <v>0.5430384024682362</v>
+        <v>2.263167616935213</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2522351301974524</v>
+        <v>0.2982643597219173</v>
       </c>
       <c r="C28">
-        <v>0.5325413577531346</v>
+        <v>0.6515601124021597</v>
       </c>
       <c r="D28">
-        <v>0.6495194115409387</v>
+        <v>0.7240861008353656</v>
       </c>
       <c r="E28">
-        <v>4.006416825025535</v>
+        <v>3.418105989789711</v>
       </c>
       <c r="F28">
-        <v>1.019619021283253</v>
+        <v>0.987153439040836</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>0.5672107772195311</v>
+        <v>0.2576718594623225</v>
       </c>
       <c r="C29">
-        <v>1.412037212433313</v>
+        <v>0.5002819249993943</v>
       </c>
       <c r="D29">
-        <v>1.900429760672654</v>
+        <v>0.6197483644831411</v>
       </c>
       <c r="E29">
-        <v>8.481015894052893</v>
+        <v>2.911700603535679</v>
       </c>
       <c r="F29">
-        <v>2.263167616935213</v>
+        <v>0.8455656674827231</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2982643597219173</v>
+        <v>0.180932066407576</v>
       </c>
       <c r="C30">
-        <v>0.6515601124021597</v>
+        <v>0.5366637286515066</v>
       </c>
       <c r="D30">
-        <v>0.7240861008353656</v>
+        <v>0.6509259352531784</v>
       </c>
       <c r="E30">
-        <v>3.418105989789711</v>
+        <v>3.303870487887436</v>
       </c>
       <c r="F30">
-        <v>0.987153439040836</v>
+        <v>0.9957704280414396</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2576718594623225</v>
+        <v>0.2888111753521044</v>
       </c>
       <c r="C31">
-        <v>0.5002819249993943</v>
+        <v>0.7921101375306207</v>
       </c>
       <c r="D31">
-        <v>0.6197483644831411</v>
+        <v>0.8896386665451615</v>
       </c>
       <c r="E31">
-        <v>2.911700603535679</v>
+        <v>4.252430684089384</v>
       </c>
       <c r="F31">
-        <v>0.8455656674827231</v>
+        <v>1.483728067676219</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>0.180932066407576</v>
+        <v>0.4191820137758068</v>
       </c>
       <c r="C32">
-        <v>0.5366637286515066</v>
+        <v>1.478586900868756</v>
       </c>
       <c r="D32">
-        <v>0.6509259352531784</v>
+        <v>1.941704785284198</v>
       </c>
       <c r="E32">
-        <v>3.303870487887436</v>
+        <v>10.908467154271</v>
       </c>
       <c r="F32">
-        <v>0.9957704280414396</v>
+        <v>2.789304331557757</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2888111753521044</v>
+        <v>0.2752628678746873</v>
       </c>
       <c r="C33">
-        <v>0.7921101375306207</v>
+        <v>0.7353088737450916</v>
       </c>
       <c r="D33">
-        <v>0.8896386665451615</v>
+        <v>0.8457956183866282</v>
       </c>
       <c r="E33">
-        <v>4.252430684089384</v>
+        <v>4.45285525184423</v>
       </c>
       <c r="F33">
-        <v>1.483728067676219</v>
+        <v>1.394923196488028</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>0.4191820137758068</v>
+        <v>0.2734871878764318</v>
       </c>
       <c r="C34">
-        <v>1.478586900868756</v>
+        <v>0.7323621305671159</v>
       </c>
       <c r="D34">
-        <v>1.941704785284198</v>
+        <v>0.7754583084019974</v>
       </c>
       <c r="E34">
-        <v>10.908467154271</v>
+        <v>2.890687551701495</v>
       </c>
       <c r="F34">
-        <v>2.789304331557757</v>
+        <v>1.28979082804712</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2752628678746873</v>
+        <v>0.6791691667974508</v>
       </c>
       <c r="C35">
-        <v>0.7353088737450916</v>
+        <v>1.40655621959927</v>
       </c>
       <c r="D35">
-        <v>0.8457956183866282</v>
+        <v>1.555349835338345</v>
       </c>
       <c r="E35">
-        <v>4.45285525184423</v>
+        <v>6.363583007917435</v>
       </c>
       <c r="F35">
-        <v>1.394923196488028</v>
+        <v>2.311326233281228</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2734871878764318</v>
+        <v>0.7869406891701233</v>
       </c>
       <c r="C36">
-        <v>0.7323621305671159</v>
+        <v>2.237629858598573</v>
       </c>
       <c r="D36">
-        <v>0.7754583084019974</v>
+        <v>2.155980447306475</v>
       </c>
       <c r="E36">
-        <v>2.890687551701495</v>
+        <v>8.223204017431764</v>
       </c>
       <c r="F36">
-        <v>1.28979082804712</v>
+        <v>3.768015305872303</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>0.6791691667974508</v>
+        <v>0.3651528291635211</v>
       </c>
       <c r="C37">
-        <v>1.40655621959927</v>
+        <v>1.045015051526601</v>
       </c>
       <c r="D37">
-        <v>1.555349835338345</v>
+        <v>1.183391418413878</v>
       </c>
       <c r="E37">
-        <v>6.363583007917435</v>
+        <v>4.683167429367797</v>
       </c>
       <c r="F37">
-        <v>2.311326233281228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0.7869406891701233</v>
-      </c>
-      <c r="C38">
-        <v>2.237629858598573</v>
-      </c>
-      <c r="D38">
-        <v>2.155980447306475</v>
-      </c>
-      <c r="E38">
-        <v>8.223204017431764</v>
-      </c>
-      <c r="F38">
-        <v>3.768015305872303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0.3651528291635211</v>
-      </c>
-      <c r="C39">
-        <v>1.045015051526601</v>
-      </c>
-      <c r="D39">
-        <v>1.183391418413878</v>
-      </c>
-      <c r="E39">
-        <v>4.683167429367797</v>
-      </c>
-      <c r="F39">
         <v>2.02117986942996</v>
       </c>
     </row>
